--- a/config_10.12/act_ty_phb_config.xlsx
+++ b/config_10.12/act_ty_phb_config.xlsx
@@ -126,8 +126,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气值达到6万</t>
+  </si>
+  <si>
+    <t>福气值达到3万</t>
+  </si>
+  <si>
+    <t>福气值达到1.5万</t>
+  </si>
+  <si>
+    <t>福气值达到8000</t>
+  </si>
+  <si>
+    <t>福气值达到3000</t>
+  </si>
+  <si>
+    <t>福气值达到1500</t>
+  </si>
+  <si>
     <r>
-      <t>act_029</t>
+      <t>act_30</t>
     </r>
     <r>
       <rPr>
@@ -140,36 +170,6 @@
       <t>_dlphb</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxjkh_024_jfphb_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_lxjkh_024_jfphb_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福气值达到6万</t>
-  </si>
-  <si>
-    <t>福气值达到3万</t>
-  </si>
-  <si>
-    <t>福气值达到1.5万</t>
-  </si>
-  <si>
-    <t>福气值达到8000</t>
-  </si>
-  <si>
-    <t>福气值达到3000</t>
-  </si>
-  <si>
-    <t>福气值达到1500</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -739,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="18">
         <v>1633996800</v>
@@ -757,10 +757,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>60000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>30000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -973,7 +973,7 @@
         <v>15000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -990,7 +990,7 @@
         <v>8000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1007,7 +1007,7 @@
         <v>8000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>3000</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1041,7 +1041,7 @@
         <v>1500</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
